--- a/pessoas-med.xlsx
+++ b/pessoas-med.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b68001cfe7d3a722/Ambiente de Trabalho/jeec/schedule_otimization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruipe\OneDrive\Ambiente de Trabalho\jeec\schedule_otimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{5D30E52C-EC23-404F-9A3E-2E7A92E17B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DC1331A-9537-44C1-929A-30E2C36E6574}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAE4FE9-312A-4B1C-8546-215FF45CE0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED6C3682-79FE-4B69-93D1-DE209828B5EC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="81">
   <si>
     <t>Nome</t>
   </si>
@@ -281,61 +281,7 @@
     <t>Vol30</t>
   </si>
   <si>
-    <t>Vol31</t>
-  </si>
-  <si>
-    <t>Vol32</t>
-  </si>
-  <si>
-    <t>Vol33</t>
-  </si>
-  <si>
-    <t>Vol34</t>
-  </si>
-  <si>
-    <t>Vol35</t>
-  </si>
-  <si>
-    <t>Vol36</t>
-  </si>
-  <si>
-    <t>Vol37</t>
-  </si>
-  <si>
-    <t>Vol38</t>
-  </si>
-  <si>
-    <t>Vol39</t>
-  </si>
-  <si>
-    <t>Vol40</t>
-  </si>
-  <si>
-    <t>Vol41</t>
-  </si>
-  <si>
-    <t>Vol42</t>
-  </si>
-  <si>
-    <t>Vol43</t>
-  </si>
-  <si>
-    <t>Vol44</t>
-  </si>
-  <si>
-    <t>Vol45</t>
-  </si>
-  <si>
-    <t>Vol46</t>
-  </si>
-  <si>
-    <t>Vol47</t>
-  </si>
-  <si>
-    <t>Vol48</t>
-  </si>
-  <si>
-    <t>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</t>
+    <t>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</t>
   </si>
 </sst>
 </file>
@@ -693,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B8EB59-0594-4E0B-8CEE-7326F1E18A00}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C90"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -734,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -745,7 +691,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -756,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -767,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -778,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -789,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -800,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -811,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -822,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -833,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -844,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -855,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -866,7 +812,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -877,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -888,7 +834,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -899,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -910,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -921,7 +867,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -932,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -943,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -954,7 +900,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -965,7 +911,7 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -976,7 +922,7 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -987,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -998,7 +944,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1009,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1020,7 +966,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1031,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1042,7 +988,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1053,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1064,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1075,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1086,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1097,7 +1043,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1108,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1119,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1130,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1141,7 +1087,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1152,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1163,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1174,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1185,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1196,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1207,7 +1153,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1218,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1229,7 +1175,7 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1240,7 +1186,7 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1251,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1262,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1273,7 +1219,7 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1284,7 +1230,7 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1295,7 +1241,7 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1306,7 +1252,7 @@
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1317,7 +1263,7 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1328,7 +1274,7 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1339,7 +1285,7 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1350,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1361,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1372,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1383,7 +1329,7 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1394,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1405,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1416,7 +1362,7 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1427,7 +1373,7 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1438,7 +1384,7 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1449,7 +1395,7 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1460,7 +1406,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1471,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1482,7 +1428,7 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1493,205 +1439,7 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>80</v>
-      </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>91</v>
-      </c>
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>94</v>
-      </c>
-      <c r="B87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>95</v>
-      </c>
-      <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>96</v>
-      </c>
-      <c r="B89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>97</v>
-      </c>
-      <c r="B90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
